--- a/timetabling_GA/results/HK3_CT01/TKB_HocKy_PhongHoc.xlsx
+++ b/timetabling_GA/results/HK3_CT01/TKB_HocKy_PhongHoc.xlsx
@@ -84,14 +84,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00BDD7EE"/>
-        <bgColor rgb="00BDD7EE"/>
+        <fgColor rgb="00FFE699"/>
+        <bgColor rgb="00FFE699"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="00FFE699"/>
-        <bgColor rgb="00FFE699"/>
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -516,7 +516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -614,51 +614,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -667,19 +667,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -694,7 +701,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -703,10 +710,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -715,126 +722,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -842,59 +861,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -913,7 +899,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1011,51 +997,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1064,19 +1050,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -1091,7 +1084,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1100,10 +1093,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -1112,126 +1105,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -1239,59 +1244,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1310,7 +1282,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1408,51 +1380,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1461,19 +1433,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -1488,7 +1467,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1497,10 +1476,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -1509,126 +1488,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -1636,59 +1627,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1707,7 +1665,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1805,51 +1763,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -1858,19 +1816,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -1885,7 +1850,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -1894,10 +1859,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -1906,126 +1871,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -2033,59 +2010,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2104,7 +2048,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2202,51 +2146,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2255,19 +2199,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -2282,7 +2233,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2291,10 +2242,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -2303,126 +2254,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -2430,59 +2393,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2501,7 +2431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2599,51 +2529,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -2652,19 +2582,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -2679,7 +2616,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -2688,10 +2625,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -2700,126 +2637,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -2827,59 +2776,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2898,7 +2814,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2996,51 +2912,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3049,19 +2965,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -3076,7 +2999,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3085,10 +3008,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -3097,126 +3020,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -3224,59 +3159,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3295,7 +3197,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3393,51 +3295,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3446,19 +3348,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -3473,7 +3382,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3482,10 +3391,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -3494,126 +3403,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -3621,59 +3542,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3692,7 +3580,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3790,51 +3678,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -3843,19 +3731,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -3870,7 +3765,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -3879,10 +3774,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -3891,126 +3786,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -4018,59 +3925,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4089,7 +3963,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4187,51 +4061,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4240,19 +4114,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -4267,7 +4148,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -4276,10 +4157,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -4288,126 +4169,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -4415,59 +4308,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4486,7 +4346,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4584,51 +4444,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -4637,19 +4497,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -4664,7 +4531,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -4673,10 +4540,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -4685,126 +4552,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -4812,59 +4691,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -4883,7 +4729,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4981,51 +4827,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5034,19 +4880,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -5061,7 +4914,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -5070,10 +4923,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -5082,126 +4935,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -5209,59 +5074,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5280,7 +5112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5378,51 +5210,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5431,19 +5263,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -5458,7 +5297,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -5467,10 +5306,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -5479,126 +5318,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -5606,59 +5457,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5677,7 +5495,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5775,51 +5593,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -5828,19 +5646,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -5855,7 +5680,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -5864,10 +5689,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -5876,126 +5701,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -6003,59 +5840,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6074,7 +5878,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6172,51 +5976,51 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C8" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB03</t>
+        </is>
+      </c>
+      <c r="C8" s="7" t="inlineStr"/>
       <c r="D8" s="7" t="inlineStr"/>
       <c r="E8" s="7" t="inlineStr"/>
-      <c r="F8" s="7" t="inlineStr"/>
+      <c r="F8" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="inlineStr"/>
       <c r="H8" s="7" t="inlineStr"/>
     </row>
-    <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="6" t="inlineStr">
-        <is>
-          <t>C1
-(13:00-15:00)</t>
-        </is>
-      </c>
+    <row r="9">
+      <c r="A9" s="9" t="n"/>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C9" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C9" s="7" t="inlineStr"/>
       <c r="D9" s="7" t="inlineStr"/>
       <c r="E9" s="7" t="inlineStr"/>
       <c r="F9" s="7" t="inlineStr"/>
-      <c r="G9" s="7" t="inlineStr"/>
+      <c r="G9" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="H9" s="7" t="inlineStr"/>
     </row>
-    <row r="10">
-      <c r="A10" s="9" t="n"/>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="6" t="inlineStr">
+        <is>
+          <t>C1
+(13:00-15:00)</t>
+        </is>
+      </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
           <t>R104</t>
@@ -6225,19 +6029,26 @@
       <c r="C10" s="7" t="inlineStr"/>
       <c r="D10" s="7" t="inlineStr"/>
       <c r="E10" s="7" t="inlineStr"/>
-      <c r="F10" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G10" s="7" t="inlineStr"/>
-      <c r="H10" s="8" t="inlineStr">
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="G10" s="10" t="inlineStr">
         <is>
           <t>Lớp: CL01
 Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
 GV: Trần Văn G
 (Lý thuyết)</t>
         </is>
@@ -6252,7 +6063,7 @@
       </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>LAB02</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C11" s="7" t="inlineStr"/>
@@ -6261,10 +6072,10 @@
       <c r="F11" s="7" t="inlineStr"/>
       <c r="G11" s="10" t="inlineStr">
         <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
+          <t>Lớp: CL07
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
         </is>
       </c>
       <c r="H11" s="7" t="inlineStr"/>
@@ -6273,126 +6084,138 @@
       <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R104</t>
         </is>
       </c>
       <c r="C12" s="10" t="inlineStr">
         <is>
+          <t>Lớp: CL01
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D12" s="7" t="inlineStr"/>
+      <c r="E12" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
-      <c r="D12" s="7" t="inlineStr"/>
-      <c r="E12" s="7" t="inlineStr"/>
-      <c r="F12" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="inlineStr"/>
-      <c r="H12" s="7" t="inlineStr"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="9" t="n"/>
+      <c r="H12" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL06
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1
+(17:30-19:30)</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
+          <t>LAB02</t>
         </is>
       </c>
       <c r="C13" s="7" t="inlineStr"/>
-      <c r="D13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL02
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="D13" s="7" t="inlineStr"/>
       <c r="E13" s="7" t="inlineStr"/>
       <c r="F13" s="8" t="inlineStr">
         <is>
+          <t>Lớp: CL07
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
+        </is>
+      </c>
+      <c r="G13" s="7" t="inlineStr"/>
+      <c r="H13" s="7" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="9" t="n"/>
+      <c r="B14" s="7" t="inlineStr">
+        <is>
+          <t>R104</t>
+        </is>
+      </c>
+      <c r="C14" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
+      <c r="D14" s="10" t="inlineStr">
+        <is>
           <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G13" s="7" t="inlineStr"/>
-      <c r="H13" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-    </row>
-    <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1
-(17:30-19:30)</t>
-        </is>
-      </c>
-      <c r="B14" s="7" t="inlineStr">
-        <is>
-          <t>LAB03</t>
-        </is>
-      </c>
-      <c r="C14" s="7" t="inlineStr"/>
-      <c r="D14" s="7" t="inlineStr"/>
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="E14" s="7" t="inlineStr"/>
       <c r="F14" s="7" t="inlineStr"/>
-      <c r="G14" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
+      <c r="G14" s="7" t="inlineStr"/>
+      <c r="H14" s="7" t="inlineStr"/>
+    </row>
+    <row r="15" ht="60" customHeight="1">
+      <c r="A15" s="6" t="inlineStr">
+        <is>
+          <t>T2
+(19:30-21:30)</t>
+        </is>
+      </c>
+      <c r="B15" s="7" t="inlineStr">
+        <is>
+          <t>LAB01</t>
+        </is>
+      </c>
+      <c r="C15" s="8" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
 Môn: Vật lý đại cương
 GV: Trần Văn G
 (Thực hành)</t>
         </is>
       </c>
-      <c r="H14" s="7" t="inlineStr"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="9" t="n"/>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>R102</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="inlineStr"/>
       <c r="D15" s="7" t="inlineStr"/>
       <c r="E15" s="7" t="inlineStr"/>
       <c r="F15" s="7" t="inlineStr"/>
       <c r="G15" s="7" t="inlineStr"/>
-      <c r="H15" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+      <c r="H15" s="7" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="9" t="n"/>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C16" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
+          <t>LAB02</t>
+        </is>
+      </c>
+      <c r="C16" s="7" t="inlineStr"/>
       <c r="D16" s="8" t="inlineStr">
         <is>
           <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
+Môn: Vật lý đại cương
+GV: Trần Văn G
+(Thực hành)</t>
         </is>
       </c>
       <c r="E16" s="7" t="inlineStr"/>
@@ -6400,59 +6223,26 @@
       <c r="G16" s="7" t="inlineStr"/>
       <c r="H16" s="7" t="inlineStr"/>
     </row>
-    <row r="17" ht="60" customHeight="1">
-      <c r="A17" s="6" t="inlineStr">
-        <is>
-          <t>T2
-(19:30-21:30)</t>
-        </is>
-      </c>
+    <row r="17">
+      <c r="A17" s="9" t="n"/>
       <c r="B17" s="7" t="inlineStr">
         <is>
-          <t>LAB03</t>
+          <t>R102</t>
         </is>
       </c>
       <c r="C17" s="7" t="inlineStr"/>
-      <c r="D17" s="10" t="inlineStr">
-        <is>
-          <t>Lớp: CL01
-Môn: Vật lý đại cương
-GV: Trần Văn G
-(Thực hành)</t>
-        </is>
-      </c>
+      <c r="D17" s="7" t="inlineStr"/>
       <c r="E17" s="7" t="inlineStr"/>
-      <c r="F17" s="7" t="inlineStr"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>Lớp: CL02
+Môn: Toán cao cấp
+GV: Trần Văn G
+(Lý thuyết)</t>
+        </is>
+      </c>
       <c r="G17" s="7" t="inlineStr"/>
       <c r="H17" s="7" t="inlineStr"/>
-    </row>
-    <row r="18">
-      <c r="A18" s="9" t="n"/>
-      <c r="B18" s="7" t="inlineStr">
-        <is>
-          <t>R104</t>
-        </is>
-      </c>
-      <c r="C18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL06
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="D18" s="7" t="inlineStr"/>
-      <c r="E18" s="7" t="inlineStr"/>
-      <c r="F18" s="8" t="inlineStr">
-        <is>
-          <t>Lớp: CL07
-Môn: Toán cao cấp
-GV: Trần Văn G
-(Lý thuyết)</t>
-        </is>
-      </c>
-      <c r="G18" s="7" t="inlineStr"/>
-      <c r="H18" s="7" t="inlineStr"/>
     </row>
   </sheetData>
   <mergeCells count="4">
